--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,888 +512,1208 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>011242</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>东吴进取策略混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>76.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>162207</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>69.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001373</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达新丝路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001654</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002497</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>36.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005903</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009590</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>36.62</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009141</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009142</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1393,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,15 +1744,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>314.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.0220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005903</t>
+          <t>010549</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
+          <t>富国均衡策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>73.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>52.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>80.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8967</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>004788</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方精选混合</t>
+          <t>富荣沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>001170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.12</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>004789</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>富荣沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001170</t>
+          <t>162207</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
+          <t>泰达宏利效率优选混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001359</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安添鑫灵活配置混合A</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001654</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安添鑫灵活配置混合C</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>009141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利价值长青混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>国联安添鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>001654</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>国联安添鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>580002</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴价值成长双动力混合A</t>
+          <t>广发中证全指家用电器指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011241</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴价值成长双动力混合C</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>580005</t>
+          <t>580002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴进取策略混合</t>
+          <t>东吴价值成长双动力混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>65.34</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>005164</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>富荣福锦混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>162207</t>
+          <t>005165</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
+          <t>富荣福锦混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>69.53</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005164</t>
+          <t>002497</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富荣福锦混合A</t>
+          <t>东方盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005165</t>
+          <t>009590</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富荣福锦混合C</t>
+          <t>东方盛世灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002497</t>
+          <t>580005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合A</t>
+          <t>东吴进取策略混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009590</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合C</t>
+          <t>广发中证全指家用电器指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2144,15 +2734,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>30.36</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002768</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安安进灵活配置混合</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004788</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强A</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004789</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强C</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009141</t>
+          <t>005903</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合A</t>
+          <t>泰达宏利绩优增长灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2284,15 +2924,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2302,26 +2952,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>011241</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2960,7 +2961,6 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>80.29</t>
@@ -2976,6 +2976,632 @@
       </c>
       <c r="H33" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3607,4 +3608,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3854,4 +3855,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3863,7 +3864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3874,17 +3875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3894,14 +3915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3910,14 +3953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.25</v>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3926,14 +3991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.15</v>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3942,13 +4029,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>32</v>
       </c>
       <c r="D5" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
         <v>25.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4756,7 +4757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4767,17 +4768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4787,14 +4808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4803,14 +4846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4819,14 +4884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.25</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4835,14 +4922,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.15</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4851,13 +4960,1115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>32</v>
       </c>
       <c r="D6" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
         <v>25.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5951,7 +5952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5962,17 +5963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5982,14 +6003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.77</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5998,14 +6041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6014,14 +6079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6030,14 +6117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.25</v>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6046,14 +6155,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.15</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6062,13 +6193,901 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>32</v>
       </c>
       <c r="D7" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
         <v>25.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>7.84</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>6.77</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>16.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>25.15</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
         <v>25.84</v>
       </c>
     </row>
@@ -600,6 +617,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1601,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2795,7 +3626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3687,7 +4518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3933,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4552,1271 +5383,6 @@
       </c>
       <c r="H16" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>314.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17.0220</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010549</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国均衡策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7138</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005760</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国周期优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8967</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6762</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5530</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5228</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5001</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162207</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3093</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2869</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2858</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009141</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2769</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2119</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001654</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1457</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>580002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴价值成长双动力混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1352</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1323</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>35.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002497</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009590</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>28.71</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>65.34</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>30.36</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>33.75</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>34.30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005903</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009142</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011241</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东吴价值成长双动力混合C</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5891,6 +5457,1271 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>314.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.0220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8967</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>401.11</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002032-苏泊尔.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.99</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>7.84</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>6.77</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>2.12</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>16.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>25.15</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>32</v>
       </c>
       <c r="D9" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
         <v>25.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1906,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +3345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,7 +4347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3626,7 +5541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4518,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4764,7 +6679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5383,1271 +7298,6 @@
       </c>
       <c r="H16" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>314.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17.0220</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010549</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国均衡策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7138</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005760</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国周期优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8967</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6762</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5530</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5228</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5001</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162207</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3093</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2869</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2858</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009141</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2769</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2119</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001654</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1457</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>580002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴价值成长双动力混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1352</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1323</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>35.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002497</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009590</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方盛世灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>28.71</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>65.34</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>30.36</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>33.75</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>34.30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005903</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009142</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011241</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东吴价值成长双动力混合C</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6722,26 +7372,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>401.11</t>
+          <t>314.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.9268</t>
+          <t>17.0220</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6750,36 +7400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001373</t>
+          <t>010549</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达新丝路灵活配置混合</t>
+          <t>富国均衡策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.64</t>
+          <t>73.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>52.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1183</t>
+          <t>1.7138</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6788,36 +7438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001170</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9821</t>
+          <t>0.8967</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6826,36 +7476,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004789</t>
+          <t>004788</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强C</t>
+          <t>富荣沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5074</t>
+          <t>0.6762</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6864,36 +7514,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009141</t>
+          <t>001170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合A</t>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4925</t>
+          <t>0.5530</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6902,36 +7552,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>004789</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>富荣沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4097</t>
+          <t>0.5228</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -6940,32 +7590,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>162207</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.70</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4041</t>
+          <t>0.5001</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -6978,32 +7628,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004788</t>
+          <t>162207</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强A</t>
+          <t>泰达宏利效率优选混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>69.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3633</t>
+          <t>0.3891</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -7016,36 +7666,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2439</t>
+          <t>0.3093</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -7054,36 +7704,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001359</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安添鑫灵活配置混合A</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2310</t>
+          <t>0.2869</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -7102,26 +7752,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2182</t>
+          <t>0.2858</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -7130,36 +7780,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>009141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>泰达宏利价值长青混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2182</t>
+          <t>0.2769</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -7168,36 +7818,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>国联安添鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2143</t>
+          <t>0.2119</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -7206,36 +7856,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>001654</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>国联安添鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2143</t>
+          <t>0.2010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -7244,36 +7894,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001654</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国联安添鑫灵活配置混合C</t>
+          <t>广发中证全指家用电器指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1983</t>
+          <t>0.1498</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -7282,36 +7932,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005164</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富荣福锦混合A</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>31.46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1441</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -7320,36 +7970,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005165</t>
+          <t>580002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富荣福锦混合C</t>
+          <t>东吴价值成长双动力混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1415</t>
+          <t>0.1352</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -7358,36 +8008,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>005164</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>富荣福锦混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.1323</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -7396,36 +8046,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011242</t>
+          <t>005165</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东吴进取策略混合C</t>
+          <t>富荣福锦混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76.76</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -7434,36 +8084,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>580005</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东吴进取策略混合</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.76</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -7472,36 +8122,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009590</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合C</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0861</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -7510,32 +8160,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004951</t>
+          <t>002497</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>申万菱信价值优利混合</t>
+          <t>东方盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0882</t>
+          <t>0.0645</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -7548,36 +8198,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002497</t>
+          <t>009590</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合A</t>
+          <t>东方盛世灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -7586,36 +8236,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>580005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>东吴进取策略混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>65.34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0589</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -7624,36 +8274,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>广发中证全指家用电器指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>48.32</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -7672,26 +8322,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.0496</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -7700,36 +8350,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005903</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -7738,32 +8388,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008061</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合A</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>71.71</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -7776,36 +8426,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009142</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合C</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>34.30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -7814,36 +8464,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008062</t>
+          <t>005903</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合C</t>
+          <t>泰达宏利绩优增长灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>71.71</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -7852,36 +8502,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>009142</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>泰达宏利价值长青混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -7890,36 +8540,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>011241</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
